--- a/2024-03-22_WT_vs_Mut_Vs_KD_NaAsO2_curve_platemap.xlsx
+++ b/2024-03-22_WT_vs_Mut_Vs_KD_NaAsO2_curve_platemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\albecklab.mcb.ucdavis.edu\Data\imageData\SG_4B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3637A-F12A-4A01-8878-C223C9952784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2237E1-2672-4221-A3EF-736DEADC774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -954,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68:L73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5203,7 +5203,7 @@
       <c r="A126" s="3"/>
       <c r="B126" s="22"/>
       <c r="C126" s="23">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D126" s="24" t="s">
         <v>59</v>
@@ -5237,7 +5237,7 @@
         <v>60</v>
       </c>
       <c r="C127" s="26">
-        <v>10.5</v>
+        <v>6.3</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>67</v>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C128" s="26">
         <f>C126-C127</f>
-        <v>989.5</v>
+        <v>593.70000000000005</v>
       </c>
       <c r="D128" s="24" t="s">
         <v>66</v>
